--- a/output/GAUSS_24592505000150.xlsx
+++ b/output/GAUSS_24592505000150.xlsx
@@ -944,10 +944,10 @@
         <v>44165</v>
       </c>
       <c r="B51">
-        <v>0.5664724299999999</v>
+        <v>0.5640947700000001</v>
       </c>
       <c r="C51">
-        <v>0.02181666885177735</v>
+        <v>0.02026571106003239</v>
       </c>
     </row>
   </sheetData>

--- a/output/GAUSS_24592505000150.xlsx
+++ b/output/GAUSS_24592505000150.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GAUSS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,568 +383,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42674</v>
       </c>
       <c r="B2">
-        <v>-0.001434939999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42704</v>
       </c>
       <c r="B3">
-        <v>-0.003873319999999958</v>
-      </c>
-      <c r="C3">
         <v>-0.002441883956965207</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42735</v>
       </c>
       <c r="B4">
-        <v>0.0350995300000001</v>
-      </c>
-      <c r="C4">
         <v>0.03912439128726075</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42766</v>
       </c>
       <c r="B5">
-        <v>0.03847307</v>
-      </c>
-      <c r="C5">
         <v>0.003259145523909046</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42794</v>
       </c>
       <c r="B6">
-        <v>0.04818338</v>
-      </c>
-      <c r="C6">
         <v>0.009350565056058802</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42825</v>
       </c>
       <c r="B7">
-        <v>0.04323355000000006</v>
-      </c>
-      <c r="C7">
         <v>-0.004722293917692078</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42855</v>
       </c>
       <c r="B8">
-        <v>0.03482610000000008</v>
-      </c>
-      <c r="C8">
         <v>-0.008059029543288743</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42886</v>
       </c>
       <c r="B9">
-        <v>0.01455611999999995</v>
-      </c>
-      <c r="C9">
         <v>-0.01958781287020117</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42916</v>
       </c>
       <c r="B10">
-        <v>0.01602550000000003</v>
-      </c>
-      <c r="C10">
         <v>0.001448298394769898</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42947</v>
       </c>
       <c r="B11">
-        <v>0.05676887999999991</v>
-      </c>
-      <c r="C11">
         <v>0.04010074550294251</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42978</v>
       </c>
       <c r="B12">
-        <v>0.07028922000000004</v>
-      </c>
-      <c r="C12">
         <v>0.01279403685695213</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43008</v>
       </c>
       <c r="B13">
-        <v>0.1179361800000001</v>
-      </c>
-      <c r="C13">
         <v>0.04451783602940518</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43039</v>
       </c>
       <c r="B14">
-        <v>0.1350189900000001</v>
-      </c>
-      <c r="C14">
         <v>0.01528066655826454</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43069</v>
       </c>
       <c r="B15">
-        <v>0.11670544</v>
-      </c>
-      <c r="C15">
         <v>-0.01613501638417525</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43100</v>
       </c>
       <c r="B16">
-        <v>0.1486443099999999</v>
-      </c>
-      <c r="C16">
         <v>0.02860098004000045</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43131</v>
       </c>
       <c r="B17">
-        <v>0.18030693</v>
-      </c>
-      <c r="C17">
         <v>0.02756520858924549</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43159</v>
       </c>
       <c r="B18">
-        <v>0.15610809</v>
-      </c>
-      <c r="C18">
         <v>-0.02050215870544791</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43190</v>
       </c>
       <c r="B19">
-        <v>0.11188335</v>
-      </c>
-      <c r="C19">
         <v>-0.0382531187027676</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43220</v>
       </c>
       <c r="B20">
-        <v>0.09346779999999999</v>
-      </c>
-      <c r="C20">
         <v>-0.01656248382530423</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43251</v>
       </c>
       <c r="B21">
-        <v>0.05593669000000001</v>
-      </c>
-      <c r="C21">
         <v>-0.03432301344401723</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43281</v>
       </c>
       <c r="B22">
-        <v>0.09373921000000007</v>
-      </c>
-      <c r="C22">
         <v>0.03579998721324862</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43312</v>
       </c>
       <c r="B23">
-        <v>0.09360344000000009</v>
-      </c>
-      <c r="C23">
         <v>-0.0001241337960261601</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43343</v>
       </c>
       <c r="B24">
-        <v>0.1364543899999999</v>
-      </c>
-      <c r="C24">
         <v>0.03918326189610366</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43373</v>
       </c>
       <c r="B25">
-        <v>0.16903785</v>
-      </c>
-      <c r="C25">
         <v>0.02867115502981177</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43404</v>
       </c>
       <c r="B26">
-        <v>0.21135685</v>
-      </c>
-      <c r="C26">
         <v>0.03619985443585083</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43434</v>
       </c>
       <c r="B27">
-        <v>0.22830324</v>
-      </c>
-      <c r="C27">
         <v>0.01398959357021834</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43465</v>
       </c>
       <c r="B28">
-        <v>0.2285688400000001</v>
-      </c>
-      <c r="C28">
         <v>0.0002162332487212204</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43496</v>
       </c>
       <c r="B29">
-        <v>0.27445243</v>
-      </c>
-      <c r="C29">
         <v>0.03734718682918881</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43524</v>
       </c>
       <c r="B30">
-        <v>0.28227925</v>
-      </c>
-      <c r="C30">
         <v>0.00614131984510391</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43555</v>
       </c>
       <c r="B31">
-        <v>0.2925890099999999</v>
-      </c>
-      <c r="C31">
         <v>0.008040183134835788</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43585</v>
       </c>
       <c r="B32">
-        <v>0.3094832700000001</v>
-      </c>
-      <c r="C32">
         <v>0.01307009410516358</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43616</v>
       </c>
       <c r="B33">
-        <v>0.30943542</v>
-      </c>
-      <c r="C33">
         <v>-3.654113122042446e-05</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43646</v>
       </c>
       <c r="B34">
-        <v>0.34415467</v>
-      </c>
-      <c r="C34">
         <v>0.02651467149101561</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43677</v>
       </c>
       <c r="B35">
-        <v>0.3513669699999999</v>
-      </c>
-      <c r="C35">
         <v>0.005365677150829695</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43708</v>
       </c>
       <c r="B36">
-        <v>0.3691554500000001</v>
-      </c>
-      <c r="C36">
         <v>0.0131633230609447</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43738</v>
       </c>
       <c r="B37">
-        <v>0.3830373499999999</v>
-      </c>
-      <c r="C37">
         <v>0.01013902402389721</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43769</v>
       </c>
       <c r="B38">
-        <v>0.4209823500000001</v>
-      </c>
-      <c r="C38">
         <v>0.02743599079229497</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43799</v>
       </c>
       <c r="B39">
-        <v>0.3538796</v>
-      </c>
-      <c r="C39">
         <v>-0.04722278922042911</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43830</v>
       </c>
       <c r="B40">
-        <v>0.43605546</v>
-      </c>
-      <c r="C40">
         <v>0.06069657892769786</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43861</v>
       </c>
       <c r="B41">
-        <v>0.4359300800000001</v>
-      </c>
-      <c r="C41">
         <v>-8.730860575523192e-05</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43890</v>
       </c>
       <c r="B42">
-        <v>0.33233048</v>
-      </c>
-      <c r="C42">
         <v>-0.07214808119347993</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43921</v>
       </c>
       <c r="B43">
-        <v>0.3466347400000001</v>
-      </c>
-      <c r="C43">
         <v>0.01073627017825185</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43951</v>
       </c>
       <c r="B44">
-        <v>0.4475554900000001</v>
-      </c>
-      <c r="C44">
         <v>0.07494292773109357</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43982</v>
       </c>
       <c r="B45">
-        <v>0.49834435</v>
-      </c>
-      <c r="C45">
         <v>0.03508595031476136</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44012</v>
       </c>
       <c r="B46">
-        <v>0.55776355</v>
-      </c>
-      <c r="C46">
         <v>0.03965657160184843</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44043</v>
       </c>
       <c r="B47">
-        <v>0.6063305800000001</v>
-      </c>
-      <c r="C47">
         <v>0.03117740815029335</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44074</v>
       </c>
       <c r="B48">
-        <v>0.5758282100000001</v>
-      </c>
-      <c r="C48">
         <v>-0.01898884972979842</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44104</v>
       </c>
       <c r="B49">
-        <v>0.52757122</v>
-      </c>
-      <c r="C49">
         <v>-0.03062325556413292</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>44135</v>
       </c>
       <c r="B50">
-        <v>0.5330268899999999</v>
-      </c>
-      <c r="C50">
         <v>0.003571466867515305</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>44165</v>
       </c>
       <c r="B51">
-        <v>0.5640947700000001</v>
-      </c>
-      <c r="C51">
-        <v>0.02026571106003239</v>
+        <v>0.02195061301240453</v>
       </c>
     </row>
   </sheetData>
